--- a/Fibonacci Sequence Program - Results Sheet.xlsx
+++ b/Fibonacci Sequence Program - Results Sheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/917ad11b3ec7883c/Documents/Homework/Software Development 1/Module 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45FCDAC1-F5A2-46C3-BFD2-ED368FC3B390}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{45FCDAC1-F5A2-46C3-BFD2-ED368FC3B390}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FCF2E231-6D2C-4EF4-8FE5-C9F347559A25}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{187EA313-1E89-4092-8BDA-F134BFBC77A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +31,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>fValue</t>
+  </si>
+  <si>
+    <t>iterative time</t>
+  </si>
+  <si>
+    <t>recursive time</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,6 +95,5021 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fibonacci Sequence Execution Time </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(fValues</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 5 -50)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Results'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iterative time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Test Results'!$A$2:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test Results'!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4101</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4399</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3901</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4299</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-81D6-4203-BCFC-22FB7D9186B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Results'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recursive time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Test Results'!$A$2:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test Results'!$C$2:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>339001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>415001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>472300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>530500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>569800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>702000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>910699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1292500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1813900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2094400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2512301</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3685800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4917300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7150499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10283200</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16914000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25869200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40898001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>66382300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>106654400</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>167509701</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>277372100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>437531000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>793007800</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1241084601</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023182000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3113811100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5056616100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7984899700</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12925441601</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20748633199</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33273186400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>54887504700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-81D6-4203-BCFC-22FB7D9186B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1317029359"/>
+        <c:axId val="1317003567"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Test Results'!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>fValue</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Test Results'!$A$2:$A$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="46"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Test Results'!$A$2:$A$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="46"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-81D6-4203-BCFC-22FB7D9186B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1317029359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>fValue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1317003567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1317003567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Computation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1317029359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fibonacci Sequence Execution Time</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(fValues</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 5 - 30)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Results'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iterative time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Test Results'!$A$2:$A$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Test Results'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Test Results'!$B$2:$B$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Test Results'!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E78-4180-B95C-B21CA4ECAC4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Results'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recursive time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Test Results'!$A$2:$A$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Test Results'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Test Results'!$C$2:$C$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Test Results'!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>275000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>339001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>415001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>472300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>530500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>569800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>702000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>910699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1292500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1813900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2094400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2512301</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3685800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4917300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E78-4180-B95C-B21CA4ECAC4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1317029359"/>
+        <c:axId val="1317003567"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Test Results'!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>fValue</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Test Results'!$A$2:$A$47</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Test Results'!$A$2:$A$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>30</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Test Results'!$A$2:$A$47</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Test Results'!$A$2:$A$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>30</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-6E78-4180-B95C-B21CA4ECAC4D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1317029359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>fValue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1317003567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1317003567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Computation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1317029359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fibonacci Sequence Execution Time</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(fValues</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 5 - 10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Results'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iterative time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Test Results'!$A$2:$A$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Test Results'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Test Results'!$B$2:$B$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Test Results'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6198-42D3-90B2-1BF9E8B0D825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Results'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recursive time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Test Results'!$A$2:$A$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Test Results'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Test Results'!$C$2:$C$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Test Results'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6198-42D3-90B2-1BF9E8B0D825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1317029359"/>
+        <c:axId val="1317003567"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Test Results'!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>fValue</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Test Results'!$A$2:$A$47</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Test Results'!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Test Results'!$A$2:$A$47</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Test Results'!$A$2:$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-6198-42D3-90B2-1BF9E8B0D825}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1317029359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>fValue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1317003567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1317003567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Computation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1317029359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED8FBD-673C-4C85-8E6B-01E5C35ED680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725D9F74-2318-441B-94BA-8BDA9A7E32C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032BE216-3C31-44E2-9494-45ED0C91F60F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A96F756-8DF6-4F6F-854B-0AE3F35D8386}" name="Table1" displayName="Table1" ref="A1:C47" totalsRowShown="0">
+  <autoFilter ref="A1:C47" xr:uid="{8790E259-49C4-4E86-B207-F92499028BC0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C47">
+    <sortCondition ref="A1:A47"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3B615F50-6136-4CEB-AED2-67A6291DA624}" name="fValue"/>
+    <tableColumn id="2" xr3:uid="{69170510-FF04-424F-A6D8-6C1FA130CAE8}" name="iterative time"/>
+    <tableColumn id="3" xr3:uid="{5F5B7670-427C-4AC1-9C00-B9F09BE4DB73}" name="recursive time"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +5409,543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DAD36C-E3F6-4855-BC45-57922A896EB1}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3400</v>
+      </c>
+      <c r="C2">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3499</v>
+      </c>
+      <c r="C3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3401</v>
+      </c>
+      <c r="C4">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>3500</v>
+      </c>
+      <c r="C5">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>4100</v>
+      </c>
+      <c r="C6">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3499</v>
+      </c>
+      <c r="C7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>3400</v>
+      </c>
+      <c r="C8">
+        <v>27599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>3800</v>
+      </c>
+      <c r="C9">
+        <v>27299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>3700</v>
+      </c>
+      <c r="C10">
+        <v>56300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>3699</v>
+      </c>
+      <c r="C11">
+        <v>84901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>3899</v>
+      </c>
+      <c r="C12">
+        <v>88701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>3800</v>
+      </c>
+      <c r="C13">
+        <v>142799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>3901</v>
+      </c>
+      <c r="C14">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>3700</v>
+      </c>
+      <c r="C15">
+        <v>339001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>3701</v>
+      </c>
+      <c r="C16">
+        <v>415001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>3800</v>
+      </c>
+      <c r="C17">
+        <v>472300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>4000</v>
+      </c>
+      <c r="C18">
+        <v>530500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>3600</v>
+      </c>
+      <c r="C19">
+        <v>569800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>4000</v>
+      </c>
+      <c r="C20">
+        <v>702000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>4100</v>
+      </c>
+      <c r="C21">
+        <v>910699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>3800</v>
+      </c>
+      <c r="C22">
+        <v>1292500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>3600</v>
+      </c>
+      <c r="C23">
+        <v>1813900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>4200</v>
+      </c>
+      <c r="C24">
+        <v>2094400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>4200</v>
+      </c>
+      <c r="C25">
+        <v>2512301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>4199</v>
+      </c>
+      <c r="C26">
+        <v>3685800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>3700</v>
+      </c>
+      <c r="C27">
+        <v>4917300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>4101</v>
+      </c>
+      <c r="C28">
+        <v>7150499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>3900</v>
+      </c>
+      <c r="C29">
+        <v>10283200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>4399</v>
+      </c>
+      <c r="C30">
+        <v>16914000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>4200</v>
+      </c>
+      <c r="C31">
+        <v>25869200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>3900</v>
+      </c>
+      <c r="C32">
+        <v>40898001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>3901</v>
+      </c>
+      <c r="C33">
+        <v>66382300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>4100</v>
+      </c>
+      <c r="C34">
+        <v>106654400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>4299</v>
+      </c>
+      <c r="C35">
+        <v>167509701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>4000</v>
+      </c>
+      <c r="C36">
+        <v>277372100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>4000</v>
+      </c>
+      <c r="C37">
+        <v>437531000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>4099</v>
+      </c>
+      <c r="C38">
+        <v>793007800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>4100</v>
+      </c>
+      <c r="C39">
+        <v>1241084601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>3900</v>
+      </c>
+      <c r="C40">
+        <v>2023182000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>16200</v>
+      </c>
+      <c r="C41">
+        <v>3113811100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>4100</v>
+      </c>
+      <c r="C42">
+        <v>5056616100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>4300</v>
+      </c>
+      <c r="C43">
+        <v>7984899700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>4200</v>
+      </c>
+      <c r="C44">
+        <v>12925441601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>4200</v>
+      </c>
+      <c r="C45">
+        <v>20748633199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>17999</v>
+      </c>
+      <c r="C46">
+        <v>33273186400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>4301</v>
+      </c>
+      <c r="C47">
+        <v>54887504700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>